--- a/pmod.xlsx
+++ b/pmod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu\home\ethan\auto-looper\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8705F474-6A74-40BF-B7E7-279D71522C26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B76281D5-9B64-40FF-90F6-E086384A468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{58EC9C17-E3E6-4B59-87A5-AE4AED69743A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -429,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0211EDA7-9288-4EC5-93B0-E5DC3CF50C86}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,6 +584,38 @@
         <v>7</v>
       </c>
     </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="H11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>19</v>
+      </c>
+      <c r="H12">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>16</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
